--- a/Margin Concept Exercise Case.xlsx
+++ b/Margin Concept Exercise Case.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikeCarpenter\Dropbox\Carpe Diem Innovations\FPA Cert\AFP Cases\4 Class session\Class 3 - Core FP&amp;A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academics\FPAC prep\Boot Camp Materials\Class 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14185037-EBD2-4EB5-BF2E-AFBF4D420554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A255B4-7C4B-4830-8569-E34E270D1314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1750" yWindow="1750" windowWidth="10420" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Margin Concept Case" sheetId="1" r:id="rId1"/>
-    <sheet name="Margin Concept Answer" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Margin Concept Answer" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -634,25 +634,25 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="10" max="10" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -660,7 +660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="20" t="s">
         <v>2</v>
@@ -684,7 +684,7 @@
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>18</v>
       </c>
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -764,7 +764,7 @@
       </c>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -800,7 +800,7 @@
       </c>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8"/>
@@ -814,7 +814,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -870,7 +870,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8"/>
@@ -884,7 +884,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -920,13 +920,13 @@
       </c>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D12" s="10"/>
       <c r="G12" s="10"/>
       <c r="M12" s="10"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -982,7 +982,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1054,7 +1054,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
         <v>13</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
@@ -1166,10 +1166,10 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="20" t="s">
         <v>2</v>
@@ -1201,7 +1201,7 @@
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>18</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="8"/>
@@ -1331,7 +1331,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="8"/>
@@ -1401,7 +1401,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1437,13 +1437,13 @@
       </c>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D29" s="10"/>
       <c r="G29" s="10"/>
       <c r="M29" s="10"/>
       <c r="P29" s="10"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>12</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1571,7 +1571,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="12"/>
     </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="14" t="s">
         <v>13</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="13" t="s">
         <v>10</v>
       </c>
@@ -1706,25 +1706,25 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="10" max="10" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="20" t="s">
         <v>2</v>
@@ -1756,7 +1756,7 @@
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>18</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8"/>
@@ -1886,7 +1886,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8"/>
@@ -1956,7 +1956,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1992,13 +1992,13 @@
       </c>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D12" s="10"/>
       <c r="G12" s="10"/>
       <c r="M12" s="10"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>0.69166666666666665</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2126,7 +2126,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
         <v>13</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
@@ -2238,10 +2238,10 @@
         <v>0.30833333333333335</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="20" t="s">
         <v>2</v>
@@ -2273,7 +2273,7 @@
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>18</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="8"/>
@@ -2403,7 +2403,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="8"/>
@@ -2473,7 +2473,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2509,13 +2509,13 @@
       </c>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D29" s="10"/>
       <c r="G29" s="10"/>
       <c r="M29" s="10"/>
       <c r="P29" s="10"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>12</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2643,7 +2643,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="12"/>
     </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="14" t="s">
         <v>13</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="13" t="s">
         <v>10</v>
       </c>
